--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_19_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>778264.5559813924</v>
+        <v>815747.1003257737</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433754.73901463</v>
+        <v>12437488.66054344</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.18636774</v>
+        <v>6541981.353790678</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9182115.33648047</v>
+        <v>9180834.739570584</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>232.2791855053266</v>
+        <v>239.807948141505</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>211.2228407230376</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.47976783581356</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>46.58246887584032</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>239.807948141505</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.6024894965595</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.856958822918974</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.807948141505</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.807948141505</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.807948141505</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.1885827556918</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539854</v>
+        <v>90.41743820696867</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>138.0562680054315</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.4636371046684</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>104.1593901034324</v>
       </c>
       <c r="X5" t="n">
-        <v>312.1736214788158</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>154.6676969862205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>51.28985656459535</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6772974728161</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>225.8317623645015</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>114.4835700943603</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.6723951661382</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>72.70651398101036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>31.66653328175763</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>142.4303485141368</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>298.8334206787562</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.030256527691612</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.08565019121048</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>232.8770887703521</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.5775735655136</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,13 +1587,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>212.6826520318765</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2904874124741172</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>145.6513251149812</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.8355064358546</v>
       </c>
       <c r="W16" t="n">
-        <v>224.693819199671</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>8.295721849961039</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>252.8265126664216</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6898441249709</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>29.55252373261328</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>303.4255546399545</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>125.4135346272747</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396202</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.6898441249709</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>110.760180668736</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>285.1648371153854</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>96.47490797857034</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.26879610203965</v>
+        <v>28.20584125154398</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>316.7197341507547</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>64.3701233831905</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.26879610203961</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>127.31653654799</v>
       </c>
     </row>
     <row r="29">
@@ -2794,16 +2794,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>340.8792122661208</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>194.7469594744688</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492336</v>
+        <v>24.01006515217569</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>120.6088074159611</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>102.9230408272514</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>91.08551991617568</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>28.54340750100555</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>206.1807275362176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>126.53888249517</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>7.601081015447068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>155.6249412521979</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680958</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>341.83370410097</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>49.00186811940955</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>112.5583888469041</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>153.4696656457188</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>235.9955072668614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>96.44868378079322</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>105.4063450911296</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388467</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="C2" t="n">
-        <v>553.8524235344764</v>
+        <v>232.5410406220654</v>
       </c>
       <c r="D2" t="n">
-        <v>553.8524235344764</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344764</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>449.0101090859561</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>643.3443219779383</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>813.5133472948978</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>924.2476725444249</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>717.0015419180351</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>474.7712912700503</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388467</v>
+        <v>474.7712912700503</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>86.7924555146774</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>224.0220535303713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>403.519389884976</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>602.1761315376407</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>761.6884442064013</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>936.4948513640429</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374624</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374624</v>
+        <v>912.1787937015347</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057196</v>
+        <v>677.0266854697919</v>
       </c>
       <c r="W3" t="n">
-        <v>368.656976677518</v>
+        <v>434.7964348218071</v>
       </c>
       <c r="X3" t="n">
-        <v>368.656976677518</v>
+        <v>226.9449346162743</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.8966779125641</v>
+        <v>19.1846358513204</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.0184834666425</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="C4" t="n">
-        <v>175.0184834666425</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="D4" t="n">
-        <v>175.0184834666425</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="E4" t="n">
-        <v>175.0184834666425</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0184834666425</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>19.1846358513204</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>305.0655603477485</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>510.3351610669864</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>716.1585259030907</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>830.3658965470443</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>955.8134731456599</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660199</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>751.7915078184253</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>751.7915078184253</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>509.5612571704405</v>
       </c>
       <c r="V4" t="n">
-        <v>800.1710318001379</v>
+        <v>267.3310065224557</v>
       </c>
       <c r="W4" t="n">
-        <v>533.79337523296</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="X4" t="n">
-        <v>533.79337523296</v>
+        <v>25.10075587447088</v>
       </c>
       <c r="Y4" t="n">
-        <v>313.0007960894299</v>
+        <v>25.10075587447088</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>883.5787973092038</v>
+        <v>954.6901787072395</v>
       </c>
       <c r="C5" t="n">
-        <v>514.6162803687921</v>
+        <v>954.6901787072395</v>
       </c>
       <c r="D5" t="n">
-        <v>514.6162803687921</v>
+        <v>954.6901787072395</v>
       </c>
       <c r="E5" t="n">
-        <v>128.8280277705479</v>
+        <v>954.6901787072395</v>
       </c>
       <c r="F5" t="n">
-        <v>128.8280277705479</v>
+        <v>543.7042739176319</v>
       </c>
       <c r="G5" t="n">
-        <v>128.8280277705479</v>
+        <v>127.3521701240038</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705479</v>
+        <v>127.3521701240038</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135741</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780285</v>
+        <v>118.4528715681358</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818706</v>
+        <v>292.7347608803236</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587374002</v>
+        <v>545.848617488874</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176504</v>
+        <v>859.1559902289289</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058972</v>
+        <v>1182.146812191524</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.2511208367</v>
+        <v>1473.802625181952</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921692</v>
+        <v>1688.223113014615</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567871</v>
+        <v>1801.071223019953</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567871</v>
+        <v>1801.071223019953</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.67434296196</v>
+        <v>1661.62044725689</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.67434296196</v>
+        <v>1450.041015838033</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.67434296196</v>
+        <v>1450.041015838033</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.67434296196</v>
+        <v>1450.041015838033</v>
       </c>
       <c r="W5" t="n">
-        <v>1198.905687691846</v>
+        <v>1344.829510683051</v>
       </c>
       <c r="X5" t="n">
-        <v>883.5787973092038</v>
+        <v>1344.829510683051</v>
       </c>
       <c r="Y5" t="n">
-        <v>883.5787973092038</v>
+        <v>954.6901787072395</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>364.5484626282627</v>
+        <v>707.5020295571333</v>
       </c>
       <c r="C6" t="n">
-        <v>190.0954333471357</v>
+        <v>533.0490002760063</v>
       </c>
       <c r="D6" t="n">
-        <v>190.0954333471357</v>
+        <v>384.114590614755</v>
       </c>
       <c r="E6" t="n">
-        <v>33.86543639135741</v>
+        <v>224.8771356092995</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135741</v>
+        <v>173.0691996854658</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135741</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135741</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135741</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324467</v>
+        <v>191.1293076758329</v>
       </c>
       <c r="K6" t="n">
-        <v>443.223580507503</v>
+        <v>321.0336437835193</v>
       </c>
       <c r="L6" t="n">
-        <v>653.4921936302384</v>
+        <v>542.0285960262423</v>
       </c>
       <c r="M6" t="n">
-        <v>918.2226155869801</v>
+        <v>819.2761498072782</v>
       </c>
       <c r="N6" t="n">
-        <v>1204.368308998708</v>
+        <v>1118.270266276802</v>
       </c>
       <c r="O6" t="n">
-        <v>1443.915920172906</v>
+        <v>1369.57167440569</v>
       </c>
       <c r="P6" t="n">
-        <v>1616.840930787376</v>
+        <v>1551.930143309343</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232584</v>
+        <v>1801.071223019953</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567871</v>
+        <v>1801.071223019953</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567871</v>
+        <v>1801.071223019953</v>
       </c>
       <c r="T6" t="n">
-        <v>1497.665933903209</v>
+        <v>1801.071223019953</v>
       </c>
       <c r="U6" t="n">
-        <v>1269.549726558694</v>
+        <v>1572.958331742678</v>
       </c>
       <c r="V6" t="n">
-        <v>1034.397618326951</v>
+        <v>1337.806223510936</v>
       </c>
       <c r="W6" t="n">
-        <v>780.1602615987495</v>
+        <v>1083.568866782734</v>
       </c>
       <c r="X6" t="n">
-        <v>572.3087613932166</v>
+        <v>875.7173665772013</v>
       </c>
       <c r="Y6" t="n">
-        <v>364.5484626282627</v>
+        <v>875.7173665772013</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>967.7367519779873</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="C7" t="n">
-        <v>798.8005690500804</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="D7" t="n">
-        <v>648.6839296377447</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="E7" t="n">
-        <v>500.7708360553515</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="F7" t="n">
-        <v>353.8808885574412</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="G7" t="n">
-        <v>185.561786156928</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135741</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135741</v>
+        <v>36.02142446039905</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652216</v>
+        <v>41.36924098016257</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128602</v>
+        <v>179.9941830200433</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119593</v>
+        <v>412.9128165369499</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191547</v>
+        <v>668.8819810728204</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361665</v>
+        <v>924.1993874170948</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021382</v>
+        <v>1144.010040981243</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1308.575346340311</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397016</v>
+        <v>1339.076753524692</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397016</v>
+        <v>1223.436783732408</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397016</v>
+        <v>1021.747495685804</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397016</v>
+        <v>1021.747495685804</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397016</v>
+        <v>1021.747495685804</v>
       </c>
       <c r="V7" t="n">
-        <v>1041.177675191129</v>
+        <v>767.0630074799174</v>
       </c>
       <c r="W7" t="n">
-        <v>1041.177675191129</v>
+        <v>477.6458374429567</v>
       </c>
       <c r="X7" t="n">
-        <v>967.7367519779873</v>
+        <v>249.6562865449394</v>
       </c>
       <c r="Y7" t="n">
-        <v>967.7367519779873</v>
+        <v>217.6698892906388</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1164.26325471341</v>
+        <v>835.9140537841261</v>
       </c>
       <c r="C8" t="n">
-        <v>795.3007377729979</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="D8" t="n">
-        <v>437.0350391662474</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E8" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800311</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2293.771082023457</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2293.771082023457</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2293.771082023457</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W8" t="n">
-        <v>1941.002426753343</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.002426753343</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.863094777531</v>
+        <v>1222.513893848248</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.2539356854975</v>
+        <v>559.7133592494373</v>
       </c>
       <c r="C10" t="n">
-        <v>55.3177527575906</v>
+        <v>390.7771763215304</v>
       </c>
       <c r="D10" t="n">
-        <v>55.3177527575906</v>
+        <v>240.6605369091947</v>
       </c>
       <c r="E10" t="n">
-        <v>55.3177527575906</v>
+        <v>92.74744332680157</v>
       </c>
       <c r="F10" t="n">
-        <v>55.3177527575906</v>
+        <v>92.74744332680157</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>92.74744332680157</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4995,19 +4995,19 @@
         <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>673.036065727045</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W10" t="n">
-        <v>673.036065727045</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="X10" t="n">
-        <v>445.0465148290276</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.2539356854975</v>
+        <v>741.361824079677</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.341567565138</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.379050624726</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D11" t="n">
-        <v>985.1133520179758</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E11" t="n">
-        <v>599.3250994197315</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F11" t="n">
-        <v>599.3250994197315</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
         <v>364.0957168234162</v>
@@ -5041,19 +5041,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2489.080739605071</v>
+        <v>1905.73541288214</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.94140762926</v>
+        <v>1905.73541288214</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5123,10 +5123,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5199,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046014</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676408</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696235</v>
+        <v>912.1769340983416</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260934</v>
+        <v>691.3843549548114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1274.53911114974</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C14" t="n">
-        <v>905.5765942093283</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="D14" t="n">
-        <v>905.2831725805665</v>
+        <v>1354.075868958388</v>
       </c>
       <c r="E14" t="n">
-        <v>519.4949199823222</v>
+        <v>968.2876163601441</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450753</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X14" t="n">
-        <v>2051.278283189673</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y14" t="n">
-        <v>1661.138951213862</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>794.6070935315613</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C16" t="n">
-        <v>625.6709106036544</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>625.6709106036544</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>1424.011591242373</v>
+        <v>1283.705173297113</v>
       </c>
       <c r="W16" t="n">
-        <v>1197.048137505331</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="X16" t="n">
-        <v>1197.048137505331</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="Y16" t="n">
-        <v>976.255558361801</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1628.178203944119</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="C17" t="n">
-        <v>1259.215687003708</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="D17" t="n">
-        <v>900.9499883969572</v>
+        <v>1047.26118400686</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>661.4729314086158</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>661.4729314086158</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V17" t="n">
-        <v>2741.012457539435</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W17" t="n">
-        <v>2388.243802269321</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X17" t="n">
-        <v>2014.778044008241</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y17" t="n">
-        <v>2014.778044008241</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
         <v>765.151745215813</v>
@@ -5612,7 +5612,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.8553933260934</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="C19" t="n">
-        <v>231.8553933260934</v>
+        <v>391.1661915858336</v>
       </c>
       <c r="D19" t="n">
-        <v>231.8553933260934</v>
+        <v>391.1661915858336</v>
       </c>
       <c r="E19" t="n">
-        <v>231.8553933260934</v>
+        <v>243.2530980034405</v>
       </c>
       <c r="F19" t="n">
-        <v>231.8553933260934</v>
+        <v>96.36315050553017</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>96.36315050553017</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,10 +5694,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
         <v>1735.608663915319</v>
@@ -5706,19 +5706,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610488</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046014</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676408</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696235</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260934</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1502.309837160186</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C20" t="n">
-        <v>1133.347320219774</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D20" t="n">
-        <v>775.0816216130238</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E20" t="n">
-        <v>775.0816216130238</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923657</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653543</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392463</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1808.800296392463</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218339</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218339</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.6347488791189</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1815.415577716032</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1593.648962285558</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610488</v>
+        <v>1304.546095411201</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046014</v>
+        <v>1049.861607205314</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676408</v>
+        <v>760.4444371683537</v>
       </c>
       <c r="X22" t="n">
-        <v>452.6479724696235</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y22" t="n">
-        <v>231.8553933260934</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1734.047335491681</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C23" t="n">
-        <v>1365.084818551269</v>
+        <v>1566.40401399058</v>
       </c>
       <c r="D23" t="n">
-        <v>1006.819119944518</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>621.0308673462741</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912087</v>
@@ -6004,37 +6004,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V23" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W23" t="n">
-        <v>2884.252265792694</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X23" t="n">
-        <v>2510.786507531614</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2120.647175555802</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6056,25 +6056,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6083,19 +6083,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.8553933260934</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C25" t="n">
-        <v>231.8553933260934</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="D25" t="n">
-        <v>231.8553933260934</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.6347488791189</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610488</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046014</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676408</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696235</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.8553933260934</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1647.321240915451</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.358723975039</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
         <v>1278.358723975039</v>
@@ -6217,22 +6217,22 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
@@ -6241,37 +6241,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3150.294826486578</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V26" t="n">
-        <v>3150.294826486578</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W26" t="n">
-        <v>2797.526171216464</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X26" t="n">
-        <v>2424.060412955384</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2033.921080979572</v>
+        <v>2325.505862906802</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6311,7 +6311,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.8553933260934</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C28" t="n">
-        <v>231.8553933260934</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D28" t="n">
-        <v>231.8553933260934</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E28" t="n">
-        <v>231.8553933260934</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>84.96544582818302</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610488</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046014</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676408</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696235</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260934</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1405.52688261361</v>
+        <v>1980.946859214235</v>
       </c>
       <c r="C29" t="n">
-        <v>1036.564365673199</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>678.2986670664484</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
         <v>481.5845665871869</v>
@@ -6463,19 +6463,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6493,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653544</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X29" t="n">
-        <v>2182.266054653544</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y29" t="n">
-        <v>1792.126722677732</v>
+        <v>2367.546699278356</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
         <v>66.51211643218342</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>880.2242361621292</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>590.8070661251686</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X31" t="n">
-        <v>362.8175152271513</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.0249360836212</v>
+        <v>872.3234075408143</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1934.181533884357</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C32" t="n">
-        <v>1565.219016943946</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.953318337195</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E32" t="n">
-        <v>821.1650657389509</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>188.3391946301239</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2320.781373948479</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X32" t="n">
-        <v>2320.781373948479</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y32" t="n">
-        <v>2320.781373948479</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>452.6479724696235</v>
+        <v>561.0764108006838</v>
       </c>
       <c r="C34" t="n">
-        <v>452.6479724696235</v>
+        <v>561.0764108006838</v>
       </c>
       <c r="D34" t="n">
-        <v>452.6479724696235</v>
+        <v>410.959771388348</v>
       </c>
       <c r="E34" t="n">
-        <v>304.7348788872304</v>
+        <v>263.0466778059549</v>
       </c>
       <c r="F34" t="n">
-        <v>304.7348788872304</v>
+        <v>263.0466778059549</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143256</v>
+        <v>95.34384118067388</v>
       </c>
       <c r="H34" t="n">
         <v>66.51211643218342</v>
@@ -6888,22 +6888,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610488</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046014</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676408</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696235</v>
+        <v>963.5174547744537</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.6479724696235</v>
+        <v>742.7248756309235</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>958.1473305693551</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>572.3590779711108</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X35" t="n">
-        <v>2824.323010322666</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,7 +7034,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.8928126690271</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C37" t="n">
-        <v>241.8928126690271</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D37" t="n">
-        <v>234.2149530574644</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7137,10 +7137,10 @@
         <v>872.3234075408143</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427969</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992668</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7274,7 +7274,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218339</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7365,19 +7365,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V40" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W40" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1689.318139675982</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.35562273557</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3211.91047933957</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2958.380002613407</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="W41" t="n">
-        <v>2839.523069976995</v>
+        <v>2627.317115269836</v>
       </c>
       <c r="X41" t="n">
-        <v>2466.057311715915</v>
+        <v>2253.851357008756</v>
       </c>
       <c r="Y41" t="n">
-        <v>2075.917979740103</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="42">
@@ -7511,7 +7511,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7596,13 +7596,13 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610488</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V43" t="n">
         <v>986.3598813409312</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1278.358723975039</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
         <v>1278.358723975039</v>
@@ -7639,13 +7639,13 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3117.892240226373</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W44" t="n">
-        <v>2428.563654276052</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X44" t="n">
-        <v>2055.097896014972</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y44" t="n">
-        <v>1664.958564039161</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>6.233205181928398</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>66.78462588923517</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>102.549217128867</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157928</v>
+        <v>19.9660139062529</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.66716643458761</v>
+        <v>178.9479484767158</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>42.22772353753528</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>132.993706265681</v>
+        <v>125.4649436295026</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>143.4602008976454</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>11.34683808079566</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032862994</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.05341581405378</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>179.2749307381055</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>11.88703501941464</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.22949068537784</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>11.83888305885002</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>46.45270651659203</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>12.32969518232304</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>46.71505019508604</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>307.5819646856186</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>251.096520527081</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>245.0815786139806</v>
       </c>
       <c r="X5" t="n">
-        <v>57.55747919965324</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.977383469180438</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>93.77935582878852</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>96.14326985821192</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813362</v>
+        <v>32.02898123037348</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>140.7338711528683</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.4486940655557</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.594076741979</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.8074383354648</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>113.4418035153026</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>221.9770055215042</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>286.2428346683193</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>153.0031414080268</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>186.9181200703372</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>64.22783646609693</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>87.40451797729742</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>162.2763435171126</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>106.1658589639184</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>178.0446368831013</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.1535271129554</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>13.02700335716062</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.3925542082088</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>261.2247206267302</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>24.30213688797343</v>
       </c>
       <c r="W16" t="n">
-        <v>61.82917913692003</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>373.6346482223008</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>158.0952129870319</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.335964134057321</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>115.2024911817075</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>79.30828702352608</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>229.2695069934083</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696639</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>79.00884466270594</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>69.5182045052976</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>310.4011377631411</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>128.1651665445295</v>
+        <v>118.2281213950252</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>66.0141075127259</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>186.6250485757115</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>147.7570121569886</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>91.26811680410482</v>
       </c>
     </row>
     <row r="29">
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>24.39367950488679</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>187.183410597793</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270139</v>
+        <v>155.8219150297616</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>246.3179278901616</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>74.94028834285254</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.2116074133152</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>204.7409981172358</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>222.702086222243</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>141.0143920027653</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>62.9597120998969</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>27.89739657749908</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>130.8301120625277</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>91.35958129271604</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>195.7713030716942</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>154.5464881781087</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>243.8346236262834</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.142136056966</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>516717.4171719217</v>
+        <v>497987.3257076783</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>625508.7650978477</v>
+        <v>643656.2394343757</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>772509.0922983249</v>
+        <v>772509.0922983248</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>847031.8278139898</v>
+        <v>847031.8278139899</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>847031.8278139898</v>
+        <v>847031.8278139897</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847031.8278139897</v>
+        <v>847031.8278139899</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847031.8278139899</v>
+        <v>847031.8278139901</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>847031.8278139901</v>
+        <v>847031.8278139898</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214164.9102569681</v>
+        <v>206576.5492984299</v>
       </c>
       <c r="C2" t="n">
-        <v>259834.9292344158</v>
+        <v>267477.645034136</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190239</v>
       </c>
       <c r="E2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="G2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>358046.9539194665</v>
-      </c>
-      <c r="I2" t="n">
-        <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
+        <v>358046.9539194667</v>
+      </c>
+      <c r="L2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>358046.9539194667</v>
-      </c>
-      <c r="M2" t="n">
-        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="P2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194666</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>652246.4444800894</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739509</v>
+        <v>232967.080278928</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819066</v>
+        <v>195646.7520407405</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>62744.31078353584</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640828</v>
+        <v>54165.63263426701</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946795</v>
+        <v>48167.5265146952</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17227.97312960584</v>
+        <v>16183.32717025135</v>
       </c>
       <c r="C4" t="n">
-        <v>19579.8930966281</v>
+        <v>19915.38496581827</v>
       </c>
       <c r="D4" t="n">
-        <v>23400.41285106791</v>
+        <v>23400.41285106789</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="G4" t="n">
         <v>12210.17896214071</v>
@@ -26453,10 +26453,10 @@
         <v>12210.17896214071</v>
       </c>
       <c r="N4" t="n">
-        <v>12210.17896214072</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="O4" t="n">
-        <v>12210.17896214073</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="P4" t="n">
         <v>12210.17896214071</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>61145.70223437331</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923122</v>
+        <v>77891.16531167434</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26484,16 +26484,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26502,16 +26502,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-556526.5618548485</v>
+        <v>-524067.8311571427</v>
       </c>
       <c r="C6" t="n">
-        <v>-20317.412093696</v>
+        <v>-64074.88687535421</v>
       </c>
       <c r="D6" t="n">
-        <v>-24181.74537568689</v>
+        <v>8762.528415181643</v>
       </c>
       <c r="E6" t="n">
-        <v>85981.26528068107</v>
+        <v>89109.83564893599</v>
       </c>
       <c r="F6" t="n">
-        <v>268054.2450978714</v>
+        <v>271182.8154661265</v>
       </c>
       <c r="G6" t="n">
-        <v>268054.2450978715</v>
+        <v>271182.8154661264</v>
       </c>
       <c r="H6" t="n">
-        <v>268054.2450978714</v>
+        <v>271182.8154661267</v>
       </c>
       <c r="I6" t="n">
-        <v>268054.2450978715</v>
+        <v>271182.8154661264</v>
       </c>
       <c r="J6" t="n">
-        <v>199055.0906787575</v>
+        <v>208438.5046825907</v>
       </c>
       <c r="K6" t="n">
-        <v>226977.2635514633</v>
+        <v>217017.1828318596</v>
       </c>
       <c r="L6" t="n">
-        <v>213065.9538784037</v>
+        <v>223015.2889514313</v>
       </c>
       <c r="M6" t="n">
-        <v>220501.9793044568</v>
+        <v>223630.5496727117</v>
       </c>
       <c r="N6" t="n">
-        <v>268054.2450978715</v>
+        <v>271182.8154661265</v>
       </c>
       <c r="O6" t="n">
-        <v>268054.2450978716</v>
+        <v>271182.8154661264</v>
       </c>
       <c r="P6" t="n">
-        <v>268054.2450978713</v>
+        <v>271182.8154661264</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908068</v>
+        <v>774.645996411517</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919676</v>
+        <v>450.2678057549882</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>593.476100338065</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213285</v>
+        <v>181.1698960734521</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267324</v>
+        <v>159.4188957060223</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.807948141505</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904614</v>
+        <v>210.4598576134832</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080712</v>
+        <v>190.3170263450506</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904614</v>
+        <v>210.4598576134835</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080712</v>
+        <v>190.3170263450506</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.807948141505</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904614</v>
+        <v>210.4598576134832</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080712</v>
+        <v>190.3170263450506</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>243.7619099671573</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053492</v>
+        <v>3.114154759443282</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339034</v>
+        <v>31.89283743014852</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>120.0584513634372</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677678</v>
+        <v>264.3099925142995</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599722</v>
+        <v>396.1321634815337</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159769</v>
+        <v>491.4369772008462</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285356</v>
+        <v>546.8183269040956</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383302</v>
+        <v>555.6664191143639</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113108</v>
+        <v>524.7000427251497</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906151</v>
+        <v>447.8193471013936</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190743</v>
+        <v>336.2936797788309</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025528</v>
+        <v>195.6195239078792</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639402</v>
+        <v>70.96380158081386</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802917</v>
+        <v>13.63221245946297</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442794</v>
+        <v>0.2491323807554625</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.666219690394584</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395997</v>
+        <v>16.09217437828454</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328146</v>
+        <v>57.3676516210416</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433205</v>
+        <v>157.4212208367971</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499201</v>
+        <v>269.0579400932342</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876877</v>
+        <v>361.7816042674731</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449896</v>
+        <v>422.1820680442767</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345741</v>
+        <v>433.355971143458</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587858</v>
+        <v>396.4360506352411</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077335</v>
+        <v>318.1748810543833</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970985</v>
+        <v>212.691481882649</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>103.4517804264287</v>
       </c>
       <c r="S6" t="n">
-        <v>30.0224259963308</v>
+        <v>30.94929995096955</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807086</v>
+        <v>6.716034629265885</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1096197164733279</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950635</v>
+        <v>1.396902616479785</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952475</v>
+        <v>12.41973417197482</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720639</v>
+        <v>42.00867141195572</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390989</v>
+        <v>98.76101498512077</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029919</v>
+        <v>162.2946858055604</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165517</v>
+        <v>207.6813217264582</v>
       </c>
       <c r="M7" t="n">
-        <v>212.41306557068</v>
+        <v>218.9708346905538</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379551</v>
+        <v>213.764197665493</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488044</v>
+        <v>197.44583528207</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170113</v>
+        <v>168.9490219058822</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886118</v>
+        <v>116.9715454581391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.9287839884349</v>
+        <v>62.80982128280921</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544879</v>
+        <v>24.34420287083406</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879985</v>
+        <v>5.96858390677726</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548926</v>
+        <v>0.0761946881716247</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,10 +32569,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33918,7 +33918,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806949</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>21.44873736705381</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>140.7360160012658</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>188.5852654802096</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>171.8879043605651</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>35.33749497130813</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>181.310440762227</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>200.6633754067319</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>161.1235481502632</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>176.5721284420623</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>22.9666072747242</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>115.360980448438</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>3.452847899353415</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108152</v>
+        <v>83.26408798761321</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149917</v>
+        <v>176.0423124365532</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459896</v>
+        <v>255.6705622308589</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012629</v>
+        <v>316.4720936768229</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417392</v>
+        <v>326.2533555177729</v>
       </c>
       <c r="O5" t="n">
-        <v>278.888041189624</v>
+        <v>294.601831303463</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353455</v>
+        <v>216.586351346124</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446248</v>
+        <v>113.9879899043815</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665379</v>
+        <v>156.6746295105392</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881397</v>
+        <v>131.2165011188752</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078135</v>
+        <v>223.227224487599</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229713</v>
+        <v>280.0480341222584</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512408</v>
+        <v>302.0142590601247</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143414</v>
+        <v>253.8398061907967</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934033</v>
+        <v>184.2004736400531</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.00716004566462</v>
+        <v>251.6576562733432</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144310699</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237119</v>
+        <v>5.401834868447992</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771091</v>
+        <v>140.0251939796775</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768678</v>
+        <v>235.2713469867743</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325206</v>
+        <v>258.5547116523944</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171836</v>
+        <v>257.8963700447216</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628441</v>
+        <v>222.0309631961097</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819048</v>
+        <v>166.2275811707757</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691744</v>
+        <v>30.80950220644468</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
